--- a/Device IO.xlsx
+++ b/Device IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="17565" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Input</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Destination</t>
-  </si>
-  <si>
     <t>Cable #</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Aux 6</t>
   </si>
   <si>
-    <t>VDA01 HD SDI PGM</t>
-  </si>
-  <si>
     <t>Loop</t>
   </si>
   <si>
@@ -89,7 +83,40 @@
     <t>Ctrl R</t>
   </si>
   <si>
-    <t>ADA01 Timecode</t>
+    <t>VDA 01 (HD-SDI PGM)</t>
+  </si>
+  <si>
+    <t>ADA 01 Timecode</t>
+  </si>
+  <si>
+    <t>VDA 02 (CVBS Prompter)</t>
+  </si>
+  <si>
+    <t>Dest</t>
+  </si>
+  <si>
+    <t>Switch 01 (PCR 01)</t>
+  </si>
+  <si>
+    <t>SPG 01 (PCR 01)</t>
+  </si>
+  <si>
+    <t>Audio Desk (ACR)</t>
+  </si>
+  <si>
+    <t>VMX 01 (PCR 01)</t>
+  </si>
+  <si>
+    <t>RTR 01 (PCR 01)</t>
+  </si>
+  <si>
+    <t>Switch 03 (CCU)</t>
+  </si>
+  <si>
+    <t>Switch 02 (VT)</t>
+  </si>
+  <si>
+    <t>Switch 04 (ACR)</t>
   </si>
 </sst>
 </file>
@@ -113,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -142,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -151,6 +184,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -213,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,19 +497,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,335 +517,341 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E22" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E23" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E24" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E26" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E27" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E28" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E30" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E31" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E32" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E33" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E34" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E35" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E36" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E37" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E38" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E39" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E40" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E41" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E42" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E43" s="1">
         <v>40</v>
       </c>
     </row>
@@ -817,19 +863,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -837,151 +885,157 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
     </row>
@@ -993,21 +1047,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="8.7265625" style="4"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="8.7109375" style="4"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1015,278 +1069,287 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E10" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E11" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E14" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E16" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E17" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E18" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E19" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="4" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="E20" s="4" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1297,76 +1360,82 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1378,19 +1447,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1398,25 +1467,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1424,97 +1493,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E21" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E22" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E23" s="1">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E24" s="1">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E25" s="1">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E26" s="1" t="s">
-        <v>17</v>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1525,147 +1647,288 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Device IO.xlsx
+++ b/Device IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="17565" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28730" windowHeight="17570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="DAs" sheetId="11" r:id="rId5"/>
     <sheet name="Network" sheetId="13" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>Input</t>
   </si>
@@ -83,15 +83,9 @@
     <t>Ctrl R</t>
   </si>
   <si>
-    <t>VDA 01 (HD-SDI PGM)</t>
-  </si>
-  <si>
     <t>ADA 01 Timecode</t>
   </si>
   <si>
-    <t>VDA 02 (CVBS Prompter)</t>
-  </si>
-  <si>
     <t>Dest</t>
   </si>
   <si>
@@ -117,6 +111,15 @@
   </si>
   <si>
     <t>Switch 04 (ACR)</t>
+  </si>
+  <si>
+    <t>VDA 03 (CVBS Prompter)</t>
+  </si>
+  <si>
+    <t>VDA 02 (HD-SDI PGM)</t>
+  </si>
+  <si>
+    <t>VDA 01 (4K-SDI PGM)</t>
   </si>
 </sst>
 </file>
@@ -504,12 +507,12 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -523,19 +526,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -543,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -551,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -559,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -567,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -575,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -583,7 +586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -591,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -599,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -607,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -615,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -623,7 +626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -631,7 +634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -639,7 +642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -647,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -655,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -663,7 +666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -671,7 +674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -679,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -687,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -695,7 +698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -703,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -711,7 +714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -719,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -727,7 +730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -735,7 +738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -743,7 +746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -751,7 +754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -759,7 +762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -767,7 +770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -775,7 +778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -783,7 +786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -791,7 +794,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -799,7 +802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -807,7 +810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -815,7 +818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -823,7 +826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -831,7 +834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -839,7 +842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -847,7 +850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -870,14 +873,14 @@
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="11.26953125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -891,19 +894,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -911,7 +914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -919,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -927,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -935,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -943,7 +946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -951,7 +954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -959,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -967,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -975,7 +978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -983,7 +986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -991,7 +994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -999,42 +1002,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1054,14 +1057,14 @@
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="1"/>
-    <col min="5" max="5" width="8.7109375" style="4"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="8.7265625" style="4"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1075,22 +1078,22 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1282,72 +1285,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1367,74 +1370,74 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1447,19 +1450,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1473,19 +1476,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1493,149 +1496,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="s">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="1">
+    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="1">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E38" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="1">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E39" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E40" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="1">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E41" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="1">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E42" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="4" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E43" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1649,284 +1686,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>8</v>
       </c>

--- a/Device IO.xlsx
+++ b/Device IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28730" windowHeight="17570" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="17565"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>Input</t>
   </si>
@@ -120,6 +120,213 @@
   </si>
   <si>
     <t>VDA 01 (4K-SDI PGM)</t>
+  </si>
+  <si>
+    <t>Cam 01 SDI O/P</t>
+  </si>
+  <si>
+    <t>Cam 02 SDI O/P</t>
+  </si>
+  <si>
+    <t>Cam 03 SDI O/P</t>
+  </si>
+  <si>
+    <t>Cam 04 SDI O/P</t>
+  </si>
+  <si>
+    <t>Cam 05 SDI O/P</t>
+  </si>
+  <si>
+    <t>Studio B06</t>
+  </si>
+  <si>
+    <t>Studio B07</t>
+  </si>
+  <si>
+    <t>Studio B08</t>
+  </si>
+  <si>
+    <t>VTR 01 SDI O/P</t>
+  </si>
+  <si>
+    <t>VTR 01 Mon O/P</t>
+  </si>
+  <si>
+    <t>VTR 02 SDI O/P</t>
+  </si>
+  <si>
+    <t>VTR 02 Mon O/P</t>
+  </si>
+  <si>
+    <t>VTR 03 SDI O/P</t>
+  </si>
+  <si>
+    <t>VTR 04 SDI O/P</t>
+  </si>
+  <si>
+    <t>CG 01 Key O/P</t>
+  </si>
+  <si>
+    <t>CG 01 Fill O/P</t>
+  </si>
+  <si>
+    <t>UpCon 01 SDI O/P</t>
+  </si>
+  <si>
+    <t>Embedder 01 SDI O/P</t>
+  </si>
+  <si>
+    <t>Embedder 02 SDI O/P</t>
+  </si>
+  <si>
+    <t>VMX PGM SD O/P</t>
+  </si>
+  <si>
+    <t>VMX ME1 PVW O/P</t>
+  </si>
+  <si>
+    <t>VMX Multiviewer 01 O/P</t>
+  </si>
+  <si>
+    <t>VMX Multiviewer 02 O/P</t>
+  </si>
+  <si>
+    <t>VMX Aux 01 O/P</t>
+  </si>
+  <si>
+    <t>VMX Aux 02 O/P</t>
+  </si>
+  <si>
+    <t>VMX Aux 03 O/P</t>
+  </si>
+  <si>
+    <t>VMX Aux 04 O/P</t>
+  </si>
+  <si>
+    <t>VMX Aux 05 O/P</t>
+  </si>
+  <si>
+    <t>VMX Aux 06 O/P</t>
+  </si>
+  <si>
+    <t>CCU Mon 01</t>
+  </si>
+  <si>
+    <t>CCU Mon 03</t>
+  </si>
+  <si>
+    <t>CCU Mon 04</t>
+  </si>
+  <si>
+    <t>CCU Mon 05</t>
+  </si>
+  <si>
+    <t>CCU Mon 06</t>
+  </si>
+  <si>
+    <t>CCU Mon 07</t>
+  </si>
+  <si>
+    <t>VTR Mon 01</t>
+  </si>
+  <si>
+    <t>VTR Mon 02</t>
+  </si>
+  <si>
+    <t>VTR Mon 03</t>
+  </si>
+  <si>
+    <t>VTR Mon 04</t>
+  </si>
+  <si>
+    <t>VTR Audio Mon</t>
+  </si>
+  <si>
+    <t>ACR Mon 01</t>
+  </si>
+  <si>
+    <t>ACR Mon 02</t>
+  </si>
+  <si>
+    <t>ACR Mon 03</t>
+  </si>
+  <si>
+    <t>DeEmbedder 01</t>
+  </si>
+  <si>
+    <t>DeEmbedder 02</t>
+  </si>
+  <si>
+    <t>VTR 01 SDI I/P</t>
+  </si>
+  <si>
+    <t>VTR 02 SDI I/P</t>
+  </si>
+  <si>
+    <t>VTR 03 SDI I/P</t>
+  </si>
+  <si>
+    <t>VTR 04 SDI I/P</t>
+  </si>
+  <si>
+    <t>CG 01 SDI I/P</t>
+  </si>
+  <si>
+    <t>Studio A06</t>
+  </si>
+  <si>
+    <t>Studio A07</t>
+  </si>
+  <si>
+    <t>VMX I/P 1</t>
+  </si>
+  <si>
+    <t>VMX I/P 2</t>
+  </si>
+  <si>
+    <t>VMX I/P 3</t>
+  </si>
+  <si>
+    <t>VMX I/P 4</t>
+  </si>
+  <si>
+    <t>VMX I/P 5</t>
+  </si>
+  <si>
+    <t>VMX I/P 6</t>
+  </si>
+  <si>
+    <t>VMX I/P 7</t>
+  </si>
+  <si>
+    <t>VMX I/P 8</t>
+  </si>
+  <si>
+    <t>VMX I/P 9</t>
+  </si>
+  <si>
+    <t>VMX I/P 10</t>
+  </si>
+  <si>
+    <t>VMX I/P 11</t>
+  </si>
+  <si>
+    <t>VMX I/P 12</t>
+  </si>
+  <si>
+    <t>VMX I/P 13</t>
+  </si>
+  <si>
+    <t>VMX I/P 14</t>
+  </si>
+  <si>
+    <t>VMX I/P 15</t>
+  </si>
+  <si>
+    <t>SDI-HDMI 01 I/P</t>
+  </si>
+  <si>
+    <t>SDI-HDMI 02 I/P</t>
   </si>
 </sst>
 </file>
@@ -157,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,11 +381,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -196,6 +427,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,17 +737,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="2" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,6 +762,7 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -532,330 +773,780 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2001</v>
+      </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2002</v>
+      </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2003</v>
+      </c>
       <c r="E6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2004</v>
+      </c>
       <c r="E7" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2005</v>
+      </c>
       <c r="E8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2006</v>
+      </c>
       <c r="E9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2007</v>
+      </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2008</v>
+      </c>
       <c r="E11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2009</v>
+      </c>
       <c r="E12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2010</v>
+      </c>
       <c r="E13" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2011</v>
+      </c>
       <c r="E14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2012</v>
+      </c>
       <c r="E15" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2013</v>
+      </c>
       <c r="E16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2014</v>
+      </c>
       <c r="E17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2015</v>
+      </c>
       <c r="E18" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2016</v>
+      </c>
       <c r="E19" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2017</v>
+      </c>
       <c r="E20" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
+      <c r="C21" s="1">
+        <v>2018</v>
+      </c>
       <c r="E21" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
+      <c r="C22" s="1">
+        <v>2019</v>
+      </c>
       <c r="E22" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
+      <c r="C23" s="1">
+        <v>2020</v>
+      </c>
       <c r="E23" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
+      <c r="C24" s="1">
+        <v>2021</v>
+      </c>
       <c r="E24" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
+      <c r="C25" s="1">
+        <v>2022</v>
+      </c>
       <c r="E25" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
+      <c r="C26" s="1">
+        <v>2023</v>
+      </c>
       <c r="E26" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
+      <c r="C27" s="1">
+        <v>2024</v>
+      </c>
       <c r="E27" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
+      <c r="C28" s="1">
+        <v>2025</v>
+      </c>
       <c r="E28" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
+      <c r="C29" s="1">
+        <v>2026</v>
+      </c>
       <c r="E29" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
+      <c r="C30" s="1">
+        <v>2027</v>
+      </c>
       <c r="E30" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
+      <c r="C31" s="1">
+        <v>2028</v>
+      </c>
       <c r="E31" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2029</v>
+      </c>
       <c r="E32" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2030</v>
+      </c>
       <c r="E33" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2031</v>
+      </c>
       <c r="E34" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2032</v>
+      </c>
       <c r="E35" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2033</v>
+      </c>
       <c r="E36" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2034</v>
+      </c>
       <c r="E37" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2035</v>
+      </c>
       <c r="E38" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2036</v>
+      </c>
       <c r="E39" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2037</v>
+      </c>
       <c r="E40" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2038</v>
+      </c>
       <c r="E41" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2039</v>
+      </c>
       <c r="E42" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2040</v>
+      </c>
       <c r="E43" s="1">
         <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2140</v>
       </c>
     </row>
   </sheetData>
@@ -873,14 +1564,14 @@
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="11.26953125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -900,13 +1591,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -914,7 +1605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -922,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -930,7 +1621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -938,7 +1629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -946,7 +1637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -954,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -962,7 +1653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -970,7 +1661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -978,7 +1669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -986,7 +1677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -994,7 +1685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1002,42 +1693,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1057,14 +1748,14 @@
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="8.7265625" style="4"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="8.7109375" style="4"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1084,16 +1775,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1101,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1109,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1117,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1125,7 +1816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1133,7 +1824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1141,7 +1832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1149,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1157,7 +1848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1165,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1173,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1181,7 +1872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1189,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1197,7 +1888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1205,7 +1896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1213,7 +1904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1221,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1229,7 +1920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1237,7 +1928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1245,7 +1936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1253,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1261,7 +1952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1269,7 +1960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1277,7 +1968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1285,72 +1976,72 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
       </c>
@@ -1370,12 +2061,12 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1386,58 +2077,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1452,17 +2143,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1482,13 +2173,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1496,48 +2187,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1545,52 +2236,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -1598,37 +2289,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1636,42 +2327,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E36" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E41" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E42" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>15</v>
       </c>
@@ -1691,12 +2382,12 @@
       <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1707,263 +2398,263 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>8</v>
       </c>

--- a/Device IO.xlsx
+++ b/Device IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="17565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="17565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Router" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="241">
   <si>
     <t>Input</t>
   </si>
@@ -327,6 +327,426 @@
   </si>
   <si>
     <t>SDI-HDMI 02 I/P</t>
+  </si>
+  <si>
+    <t>RTR O/P 24</t>
+  </si>
+  <si>
+    <t>RTR O/P 25</t>
+  </si>
+  <si>
+    <t>RTR O/P 26</t>
+  </si>
+  <si>
+    <t>RTR O/P 27</t>
+  </si>
+  <si>
+    <t>RTR O/P 28</t>
+  </si>
+  <si>
+    <t>RTR O/P 29</t>
+  </si>
+  <si>
+    <t>RTR O/P 30</t>
+  </si>
+  <si>
+    <t>RTR O/P 31</t>
+  </si>
+  <si>
+    <t>RTR O/P 32</t>
+  </si>
+  <si>
+    <t>RTR O/P 33</t>
+  </si>
+  <si>
+    <t>RTR O/P 34</t>
+  </si>
+  <si>
+    <t>RTR O/P 35</t>
+  </si>
+  <si>
+    <t>RTR O/P 36</t>
+  </si>
+  <si>
+    <t>RTR O/P 37</t>
+  </si>
+  <si>
+    <t>RTR O/P 38</t>
+  </si>
+  <si>
+    <t>VDA 01 I/P</t>
+  </si>
+  <si>
+    <t>Embedder 02 O/P</t>
+  </si>
+  <si>
+    <t>PGM SD</t>
+  </si>
+  <si>
+    <t>RTR I/P 31</t>
+  </si>
+  <si>
+    <t>RTR I/P 32</t>
+  </si>
+  <si>
+    <t>RTR I/P 33</t>
+  </si>
+  <si>
+    <t>RTR I/P 34</t>
+  </si>
+  <si>
+    <t>RTR I/P 35</t>
+  </si>
+  <si>
+    <t>RTR I/P 36</t>
+  </si>
+  <si>
+    <t>RTR I/P 37</t>
+  </si>
+  <si>
+    <t>RTR I/P 38</t>
+  </si>
+  <si>
+    <t>RTR I/P 39</t>
+  </si>
+  <si>
+    <t>RTR I/P 40</t>
+  </si>
+  <si>
+    <t>Prompt 01 O/P</t>
+  </si>
+  <si>
+    <t>UpCon 01 I/P</t>
+  </si>
+  <si>
+    <t>Studio W/L 01</t>
+  </si>
+  <si>
+    <t>Studio W/L 02</t>
+  </si>
+  <si>
+    <t>Studio W/L 03</t>
+  </si>
+  <si>
+    <t>Studio W/L 04</t>
+  </si>
+  <si>
+    <t>Studio W/L 05</t>
+  </si>
+  <si>
+    <t>Studio W/L 06</t>
+  </si>
+  <si>
+    <t>Studio W/L 07</t>
+  </si>
+  <si>
+    <t>Studio W/L 08</t>
+  </si>
+  <si>
+    <t>Studio W/L 09</t>
+  </si>
+  <si>
+    <t>Studio W/L 10</t>
+  </si>
+  <si>
+    <t>Studio W/L 11</t>
+  </si>
+  <si>
+    <t>Studio W/L 12</t>
+  </si>
+  <si>
+    <t>Studio W/L 13</t>
+  </si>
+  <si>
+    <t>Studio W/L 14</t>
+  </si>
+  <si>
+    <t>Studio W/L 15</t>
+  </si>
+  <si>
+    <t>Studio W/L 16</t>
+  </si>
+  <si>
+    <t>Studio W/L 17</t>
+  </si>
+  <si>
+    <t>Studio W/L 18</t>
+  </si>
+  <si>
+    <t>Studio W/L 19</t>
+  </si>
+  <si>
+    <t>Studio W/L 20</t>
+  </si>
+  <si>
+    <t>Studio W/L 21</t>
+  </si>
+  <si>
+    <t>Studio W/L 22</t>
+  </si>
+  <si>
+    <t>Studio W/L 23</t>
+  </si>
+  <si>
+    <t>Studio W/L 24</t>
+  </si>
+  <si>
+    <t>DeEmbedder 01 O/P 1</t>
+  </si>
+  <si>
+    <t>DeEmbedder 01 O/P 2</t>
+  </si>
+  <si>
+    <t>DeEmbedder 01 O/P 3</t>
+  </si>
+  <si>
+    <t>DeEmbedder 01 O/P 4</t>
+  </si>
+  <si>
+    <t>DeEmbedder 02 O/P 1</t>
+  </si>
+  <si>
+    <t>DeEmbedder 02 O/P 2</t>
+  </si>
+  <si>
+    <t>DeEmbedder 02 O/P 3</t>
+  </si>
+  <si>
+    <t>DeEmbedder 02 O/P 4</t>
+  </si>
+  <si>
+    <t>VMX PGM L O/P</t>
+  </si>
+  <si>
+    <t>VMX PGM R O/P</t>
+  </si>
+  <si>
+    <t>ACR PC L O/P</t>
+  </si>
+  <si>
+    <t>ACR PC R O/P</t>
+  </si>
+  <si>
+    <t>Embedder 01 I/P 1</t>
+  </si>
+  <si>
+    <t>Embedder 02 I/P 2</t>
+  </si>
+  <si>
+    <t>Embedder 01 I/P 2</t>
+  </si>
+  <si>
+    <t>Embedder 01 I/P 3</t>
+  </si>
+  <si>
+    <t>Embedder 01 I/P 4</t>
+  </si>
+  <si>
+    <t>Embedder 02 I/P 1</t>
+  </si>
+  <si>
+    <t>Embedder 02 I/P 3</t>
+  </si>
+  <si>
+    <t>Embedder 02 I/P 4</t>
+  </si>
+  <si>
+    <t>Studio W/L 25</t>
+  </si>
+  <si>
+    <t>Studio W/L 26</t>
+  </si>
+  <si>
+    <t>PCR Vol L I/P</t>
+  </si>
+  <si>
+    <t>PCR Vol R I/P</t>
+  </si>
+  <si>
+    <t>DIR Panel PGM I/P</t>
+  </si>
+  <si>
+    <t>Floor Mon Amp I/P</t>
+  </si>
+  <si>
+    <t>ACR Speaker L I/P</t>
+  </si>
+  <si>
+    <t>ACR Speakers R I/P</t>
+  </si>
+  <si>
+    <t>TCG LTC O/P</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>2L</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>3L</t>
+  </si>
+  <si>
+    <t>3R</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>4R</t>
+  </si>
+  <si>
+    <t>5L</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>VMX 01 TC I/P</t>
+  </si>
+  <si>
+    <t>VTR 04 TC I/P</t>
+  </si>
+  <si>
+    <t>VTR 01 TC I/P</t>
+  </si>
+  <si>
+    <t>VTR 02 TC I/P</t>
+  </si>
+  <si>
+    <t>Clock 01 TC I/P</t>
+  </si>
+  <si>
+    <t>VMX 01 4K O/P</t>
+  </si>
+  <si>
+    <t>Studio A01</t>
+  </si>
+  <si>
+    <t>Studio A02</t>
+  </si>
+  <si>
+    <t>Studio A03</t>
+  </si>
+  <si>
+    <t>Studio A04</t>
+  </si>
+  <si>
+    <t>Studio A05</t>
+  </si>
+  <si>
+    <t>Embedder 01 SDI I/P</t>
+  </si>
+  <si>
+    <t>VMX 01 HD O/P</t>
+  </si>
+  <si>
+    <t>Stream 01 SDI I/P</t>
+  </si>
+  <si>
+    <t>Studio A09</t>
+  </si>
+  <si>
+    <t>Studio A10</t>
+  </si>
+  <si>
+    <t>Studio A11</t>
+  </si>
+  <si>
+    <t>RTR 01 I/P 30</t>
+  </si>
+  <si>
+    <t>IT W/L</t>
+  </si>
+  <si>
+    <t>VMX Tub</t>
+  </si>
+  <si>
+    <t>VMX 01</t>
+  </si>
+  <si>
+    <t>RTR 01</t>
+  </si>
+  <si>
+    <t>VMX PC</t>
+  </si>
+  <si>
+    <t>CG 01</t>
+  </si>
+  <si>
+    <t>Prompt 01</t>
+  </si>
+  <si>
+    <t>VTR 03</t>
+  </si>
+  <si>
+    <t>VTR 04</t>
+  </si>
+  <si>
+    <t>Stream 01</t>
+  </si>
+  <si>
+    <t>Switch 02</t>
+  </si>
+  <si>
+    <t>Switch 03</t>
+  </si>
+  <si>
+    <t>Swithc 04</t>
+  </si>
+  <si>
+    <t>Switch 01</t>
+  </si>
+  <si>
+    <t>VTR 01</t>
+  </si>
+  <si>
+    <t>VTR 02</t>
+  </si>
+  <si>
+    <t>VTYR 02</t>
+  </si>
+  <si>
+    <t>VT Mon 01/02</t>
+  </si>
+  <si>
+    <t>VT Mon 03/04</t>
+  </si>
+  <si>
+    <t>CG 02</t>
+  </si>
+  <si>
+    <t>RTR PNL 01</t>
+  </si>
+  <si>
+    <t>CCU PC</t>
+  </si>
+  <si>
+    <t>CCU Mon 02/03</t>
+  </si>
+  <si>
+    <t>CCU Mon 04/05</t>
+  </si>
+  <si>
+    <t>CCU Mon 06/07</t>
+  </si>
+  <si>
+    <t>ACR PC</t>
+  </si>
+  <si>
+    <t>Audio Mixer 01</t>
+  </si>
+  <si>
+    <t>ACR Mon 02/03</t>
+  </si>
+  <si>
+    <t>Frame 01</t>
   </si>
 </sst>
 </file>
@@ -737,9 +1157,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,14 +1981,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="2" style="12" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1581,6 +2005,7 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1591,144 +2016,309 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+    </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2124</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2042</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2125</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2043</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2126</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>118</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2031</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2127</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2032</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2128</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2033</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2129</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2034</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2130</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2036</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2131</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2036.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2132</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2038</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2133</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2039.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2134</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2040.4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2135</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2041.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1745,14 +2335,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="2" style="12" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="4"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1765,6 +2359,7 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1776,274 +2371,618 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4001</v>
+      </c>
       <c r="E4" s="4">
         <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4002</v>
+      </c>
       <c r="E5" s="4">
         <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4042</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4003</v>
+      </c>
       <c r="E6" s="4">
         <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4043</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4004</v>
+      </c>
       <c r="E7" s="4">
         <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4044</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4005</v>
+      </c>
       <c r="E8" s="4">
         <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4045</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4006</v>
+      </c>
       <c r="E9" s="4">
         <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4046</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4007</v>
+      </c>
       <c r="E10" s="4">
         <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4047</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4008</v>
+      </c>
       <c r="E11" s="4">
         <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4048</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4009</v>
+      </c>
       <c r="E12" s="4">
         <v>9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4049</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4010</v>
+      </c>
       <c r="E13" s="4">
         <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4050</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4011</v>
+      </c>
       <c r="E14" s="4">
         <v>11</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4051</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4012</v>
+      </c>
       <c r="E15" s="4">
         <v>12</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4052</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4013</v>
+      </c>
       <c r="E16" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4014</v>
+      </c>
       <c r="E17" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4015</v>
+      </c>
       <c r="E18" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4016</v>
+      </c>
       <c r="E19" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4017</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4018</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4019</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4020</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4021</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4022</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4023</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4024</v>
+      </c>
       <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4038</v>
       </c>
     </row>
   </sheetData>
@@ -2056,14 +2995,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2087,50 +3028,104 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1001</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1002</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1003</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1004</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1005</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1006</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1007</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1008</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="C12" s="1">
+        <v>1009</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -2141,16 +3136,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="2" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2163,6 +3164,7 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2173,198 +3175,364 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+    </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2042</v>
+      </c>
       <c r="E4" s="1">
         <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2051</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="1">
         <v>2</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2052</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>3</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2053</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>4</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2054</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>5</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2055</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>6</v>
       </c>
+      <c r="G9" s="1">
+        <v>2056</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>7</v>
       </c>
+      <c r="G10" s="1">
+        <v>2057</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="12"/>
+    </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2043</v>
+      </c>
       <c r="E14" s="1">
         <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2061</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>2</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2062</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E22" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3000</v>
+      </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="1">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="1">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="1">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
-        <v>15</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2378,13 +3546,15 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2408,255 +3578,492 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7101</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7102</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7103</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7104</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7105</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7106</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7107</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7108</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7109</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
+      <c r="C13" s="1">
+        <v>7110</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
+      <c r="C14" s="1">
+        <v>7111</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
+      <c r="C15" s="1">
+        <v>7112</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>7114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>7116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>7118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="1">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="1">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="1">
+        <v>7301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C42" s="1">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="1">
+        <v>7305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>7306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="1">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="1">
+        <v>7404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>7407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>8</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7123</v>
       </c>
     </row>
   </sheetData>
